--- a/continents_data.xlsx
+++ b/continents_data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel.dobos/Documents/GitHub/LCL_class_2024_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{187188C5-2797-494E-8C86-5DFF3F85232E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9115039A-F806-E448-8840-30A5C4171EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{C92C12B4-24C7-5A4E-A083-D60611712965}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="2" xr2:uid="{C92C12B4-24C7-5A4E-A083-D60611712965}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="1" r:id="rId1"/>
+    <sheet name="Area" sheetId="2" r:id="rId2"/>
+    <sheet name="Most Populous City" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Continent</t>
   </si>
@@ -90,6 +92,57 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>Area (km2)</t>
+  </si>
+  <si>
+    <t>Area (sq mi)</t>
+  </si>
+  <si>
+    <t>Pct of total area</t>
+  </si>
+  <si>
+    <t>20.4</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>Most populous city</t>
+  </si>
+  <si>
+    <t>Lagos</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Sydney</t>
   </si>
 </sst>
 </file>
@@ -473,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4BB7D2-1628-4748-881C-1A94389A81AA}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -570,4 +623,202 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC48AE6-58B5-C24E-8AE3-B7C72E686705}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>30370000</v>
+      </c>
+      <c r="C2">
+        <v>11730000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>14000000</v>
+      </c>
+      <c r="C3">
+        <v>5400000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>44579000</v>
+      </c>
+      <c r="C4">
+        <v>17212000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>10180000</v>
+      </c>
+      <c r="C5">
+        <v>3930000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>24709000</v>
+      </c>
+      <c r="C6">
+        <v>9540000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>17840000</v>
+      </c>
+      <c r="C7">
+        <v>6890000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>8600000</v>
+      </c>
+      <c r="C8">
+        <v>3300000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9443CDD-E7DB-6240-9973-72DEC98073A6}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>